--- a/Program/Addons/BingoAntidote/Databases/DEF_Database.xlsx
+++ b/Program/Addons/BingoAntidote/Databases/DEF_Database.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierrelanari/Geologie/GitHub/XMapTools_Developers/Program/Addons/BingoAntidote/Databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412DB060-1628-FB4E-8B9D-7170E2406AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2463C559-0F1B-F048-AF8F-16C180748100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="7360" windowWidth="28040" windowHeight="17440" xr2:uid="{9DAF3506-0EEC-514B-8989-E482A643D4C2}"/>
+    <workbookView xWindow="15100" yWindow="7920" windowWidth="19400" windowHeight="17680" xr2:uid="{9DAF3506-0EEC-514B-8989-E482A643D4C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="121">
   <si>
     <t>Albite</t>
   </si>
@@ -381,6 +381,24 @@
   </si>
   <si>
     <t>O2</t>
+  </si>
+  <si>
+    <t>ds62-mb50</t>
+  </si>
+  <si>
+    <t>CAMP</t>
+  </si>
+  <si>
+    <t>AUG</t>
+  </si>
+  <si>
+    <t>[AL,MG,FE,CA,NA]</t>
+  </si>
+  <si>
+    <t>CPX</t>
+  </si>
+  <si>
+    <t>LIQG16</t>
   </si>
 </sst>
 </file>
@@ -742,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312180BE-639B-1D48-9E93-735D566A0F0D}">
   <dimension ref="A1:P122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,7 +772,13 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" t="s">
         <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -776,6 +800,12 @@
       <c r="D3" t="s">
         <v>57</v>
       </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
       <c r="P3" t="s">
         <v>0</v>
       </c>
@@ -785,6 +815,18 @@
         <f t="shared" ref="A4:A67" si="0">UPPER(P4)</f>
         <v>AMPHIBOLE</v>
       </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" t="s">
+        <v>116</v>
+      </c>
       <c r="P4" t="s">
         <v>1</v>
       </c>
@@ -803,6 +845,13 @@
       <c r="D5" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="F5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="P5" t="s">
         <v>2</v>
       </c>
@@ -821,6 +870,12 @@
       <c r="D6" t="s">
         <v>57</v>
       </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
       <c r="P6" t="s">
         <v>3</v>
       </c>
@@ -839,6 +894,12 @@
       <c r="D7" t="s">
         <v>71</v>
       </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
       <c r="P7" t="s">
         <v>5</v>
       </c>
@@ -866,6 +927,12 @@
       <c r="D9" t="s">
         <v>90</v>
       </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
       <c r="P9" t="s">
         <v>7</v>
       </c>
@@ -884,6 +951,12 @@
       <c r="D10" t="s">
         <v>70</v>
       </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
       <c r="P10" t="s">
         <v>8</v>
       </c>
@@ -902,6 +975,12 @@
       <c r="D11" t="s">
         <v>81</v>
       </c>
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
       <c r="P11" t="s">
         <v>9</v>
       </c>
@@ -911,6 +990,18 @@
         <f t="shared" si="0"/>
         <v>CLINOPYROXENE</v>
       </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
       <c r="P12" t="s">
         <v>10</v>
       </c>
@@ -929,6 +1020,12 @@
       <c r="D13" t="s">
         <v>45</v>
       </c>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" t="s">
+        <v>48</v>
+      </c>
       <c r="P13" t="s">
         <v>11</v>
       </c>
@@ -947,6 +1044,12 @@
       <c r="D14" t="s">
         <v>77</v>
       </c>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" t="s">
+        <v>76</v>
+      </c>
       <c r="P14" t="s">
         <v>12</v>
       </c>
@@ -965,6 +1068,12 @@
       <c r="D15" t="s">
         <v>89</v>
       </c>
+      <c r="K15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
       <c r="P15" t="s">
         <v>13</v>
       </c>
@@ -983,6 +1092,12 @@
       <c r="D16" t="s">
         <v>64</v>
       </c>
+      <c r="K16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" t="s">
+        <v>63</v>
+      </c>
       <c r="P16" t="s">
         <v>14</v>
       </c>
@@ -1001,6 +1116,12 @@
       <c r="D17" t="s">
         <v>59</v>
       </c>
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" t="s">
+        <v>60</v>
+      </c>
       <c r="P17" t="s">
         <v>15</v>
       </c>
@@ -1019,6 +1140,12 @@
       <c r="D18" t="s">
         <v>98</v>
       </c>
+      <c r="K18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" t="s">
+        <v>97</v>
+      </c>
       <c r="P18" t="s">
         <v>16</v>
       </c>
@@ -1037,6 +1164,12 @@
       <c r="D19" t="s">
         <v>68</v>
       </c>
+      <c r="K19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L19" t="s">
+        <v>96</v>
+      </c>
       <c r="P19" t="s">
         <v>17</v>
       </c>
@@ -1055,6 +1188,12 @@
       <c r="D20" t="s">
         <v>69</v>
       </c>
+      <c r="K20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" t="s">
+        <v>67</v>
+      </c>
       <c r="P20" t="s">
         <v>18</v>
       </c>
@@ -1073,6 +1212,12 @@
       <c r="D21" t="s">
         <v>57</v>
       </c>
+      <c r="K21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" t="s">
+        <v>58</v>
+      </c>
       <c r="P21" t="s">
         <v>19</v>
       </c>
@@ -1091,6 +1236,12 @@
       <c r="D22" t="s">
         <v>64</v>
       </c>
+      <c r="K22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" t="s">
+        <v>73</v>
+      </c>
       <c r="P22" t="s">
         <v>20</v>
       </c>
@@ -1109,6 +1260,12 @@
       <c r="D23" t="s">
         <v>90</v>
       </c>
+      <c r="K23" t="s">
+        <v>95</v>
+      </c>
+      <c r="L23" t="s">
+        <v>95</v>
+      </c>
       <c r="P23" t="s">
         <v>21</v>
       </c>
@@ -1127,6 +1284,12 @@
       <c r="D24" t="s">
         <v>92</v>
       </c>
+      <c r="K24" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" t="s">
+        <v>91</v>
+      </c>
       <c r="P24" t="s">
         <v>22</v>
       </c>
@@ -1145,6 +1308,12 @@
       <c r="D25" t="s">
         <v>85</v>
       </c>
+      <c r="K25" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" t="s">
+        <v>84</v>
+      </c>
       <c r="P25" t="s">
         <v>23</v>
       </c>
@@ -1163,6 +1332,12 @@
       <c r="D26" t="s">
         <v>50</v>
       </c>
+      <c r="K26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" t="s">
+        <v>54</v>
+      </c>
       <c r="P26" t="s">
         <v>25</v>
       </c>
@@ -1181,6 +1356,12 @@
       <c r="D27" t="s">
         <v>93</v>
       </c>
+      <c r="K27" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" t="s">
+        <v>94</v>
+      </c>
       <c r="P27" t="s">
         <v>26</v>
       </c>
@@ -1190,6 +1371,18 @@
         <f t="shared" si="0"/>
         <v>OMPHACITE</v>
       </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" t="s">
+        <v>119</v>
+      </c>
       <c r="P28" t="s">
         <v>27</v>
       </c>
@@ -1217,6 +1410,12 @@
       <c r="D30" t="s">
         <v>77</v>
       </c>
+      <c r="K30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L30" t="s">
+        <v>86</v>
+      </c>
       <c r="P30" t="s">
         <v>29</v>
       </c>
@@ -1235,6 +1434,12 @@
       <c r="D31" t="s">
         <v>50</v>
       </c>
+      <c r="K31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" t="s">
+        <v>55</v>
+      </c>
       <c r="P31" t="s">
         <v>30</v>
       </c>
@@ -1253,6 +1458,12 @@
       <c r="D32" t="s">
         <v>50</v>
       </c>
+      <c r="K32" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" t="s">
+        <v>54</v>
+      </c>
       <c r="P32" t="s">
         <v>31</v>
       </c>
@@ -1271,6 +1482,12 @@
       <c r="D33" t="s">
         <v>57</v>
       </c>
+      <c r="K33" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" t="s">
+        <v>56</v>
+      </c>
       <c r="P33" t="s">
         <v>32</v>
       </c>
@@ -1289,6 +1506,12 @@
       <c r="D34" t="s">
         <v>45</v>
       </c>
+      <c r="K34" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" t="s">
+        <v>47</v>
+      </c>
       <c r="P34" t="s">
         <v>34</v>
       </c>
@@ -1307,6 +1530,12 @@
       <c r="D35" t="s">
         <v>62</v>
       </c>
+      <c r="K35" t="s">
+        <v>61</v>
+      </c>
+      <c r="L35" t="s">
+        <v>61</v>
+      </c>
       <c r="P35" t="s">
         <v>35</v>
       </c>
@@ -1334,6 +1563,12 @@
       <c r="D37" t="s">
         <v>64</v>
       </c>
+      <c r="K37" t="s">
+        <v>74</v>
+      </c>
+      <c r="L37" t="s">
+        <v>74</v>
+      </c>
       <c r="P37" t="s">
         <v>37</v>
       </c>
@@ -1352,6 +1587,12 @@
       <c r="D38" t="s">
         <v>66</v>
       </c>
+      <c r="K38" t="s">
+        <v>65</v>
+      </c>
+      <c r="L38" t="s">
+        <v>65</v>
+      </c>
       <c r="P38" t="s">
         <v>38</v>
       </c>
@@ -1370,6 +1611,12 @@
       <c r="D39" t="s">
         <v>83</v>
       </c>
+      <c r="K39" t="s">
+        <v>82</v>
+      </c>
+      <c r="L39" t="s">
+        <v>82</v>
+      </c>
       <c r="P39" t="s">
         <v>39</v>
       </c>
@@ -1388,6 +1635,12 @@
       <c r="D40" t="s">
         <v>79</v>
       </c>
+      <c r="K40" t="s">
+        <v>78</v>
+      </c>
+      <c r="L40" t="s">
+        <v>78</v>
+      </c>
       <c r="P40" t="s">
         <v>40</v>
       </c>
@@ -1415,6 +1668,12 @@
       <c r="D42" t="s">
         <v>66</v>
       </c>
+      <c r="K42" t="s">
+        <v>65</v>
+      </c>
+      <c r="L42" t="s">
+        <v>65</v>
+      </c>
       <c r="P42" t="s">
         <v>42</v>
       </c>
@@ -1432,6 +1691,12 @@
       </c>
       <c r="D43" t="s">
         <v>53</v>
+      </c>
+      <c r="K43" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" t="s">
+        <v>52</v>
       </c>
       <c r="P43" t="s">
         <v>51</v>
@@ -1461,6 +1726,12 @@
       <c r="D47" t="s">
         <v>104</v>
       </c>
+      <c r="K47" t="s">
+        <v>108</v>
+      </c>
+      <c r="L47" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -1475,6 +1746,12 @@
       <c r="D48" t="s">
         <v>105</v>
       </c>
+      <c r="K48" t="s">
+        <v>109</v>
+      </c>
+      <c r="L48" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -1484,10 +1761,16 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
         <v>106</v>
+      </c>
+      <c r="K49" t="s">
+        <v>110</v>
+      </c>
+      <c r="L49" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
@@ -1503,6 +1786,12 @@
       <c r="D50" t="s">
         <v>107</v>
       </c>
+      <c r="K50" t="s">
+        <v>114</v>
+      </c>
+      <c r="L50" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -1516,6 +1805,12 @@
       </c>
       <c r="D51" t="s">
         <v>107</v>
+      </c>
+      <c r="K51" t="s">
+        <v>113</v>
+      </c>
+      <c r="L51" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
